--- a/storage/data/SALES.xlsx
+++ b/storage/data/SALES.xlsx
@@ -38,9 +38,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -74,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -82,9 +79,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -315,16 +309,16 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>44693.0</v>
+      <c r="C2" s="2">
+        <v>46.8</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>44691.0</v>
+      <c r="C3" s="2">
+        <v>40.0</v>
       </c>
     </row>
     <row r="4">
@@ -332,7 +326,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>5.0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -340,7 +334,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="6">
